--- a/data/trans_orig/P1427-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>9979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4826</v>
+        <v>5041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17019</v>
+        <v>17981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03385838149267967</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01637475281579168</v>
+        <v>0.01710441857839292</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05774250120126927</v>
+        <v>0.06100811177354153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -764,19 +764,19 @@
         <v>10791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5386</v>
+        <v>5475</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19191</v>
+        <v>18776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03756634711614893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0187515002441301</v>
+        <v>0.01905998272050239</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06681031473300823</v>
+        <v>0.06536431675589637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -785,19 +785,19 @@
         <v>20770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12529</v>
+        <v>13596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30703</v>
+        <v>32239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03568849427905681</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0215279241571903</v>
+        <v>0.02336225473867866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05275539708970188</v>
+        <v>0.05539561731736063</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>284759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277719</v>
+        <v>276757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289912</v>
+        <v>289697</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9661416185073203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9422574987987308</v>
+        <v>0.9389918882264585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9836252471842083</v>
+        <v>0.982895581421607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -835,19 +835,19 @@
         <v>276454</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>268054</v>
+        <v>268469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281859</v>
+        <v>281770</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9624336528838511</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9331896852669923</v>
+        <v>0.9346356832441038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812484997558699</v>
+        <v>0.9809400172794979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>518</v>
@@ -856,19 +856,19 @@
         <v>561213</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>551280</v>
+        <v>549744</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569454</v>
+        <v>568387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9643115057209432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.947244602910298</v>
+        <v>0.9446043826826395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784720758428097</v>
+        <v>0.9766377452613214</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>5147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11496</v>
+        <v>11443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0101811858745311</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003980633728987087</v>
+        <v>0.003946698789833634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0227401315196234</v>
+        <v>0.02263548426094677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -981,19 +981,19 @@
         <v>13964</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7848</v>
+        <v>7334</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24098</v>
+        <v>23868</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02666134853737322</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01498323649127408</v>
+        <v>0.0140026443608225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04600936932979206</v>
+        <v>0.04556962073542031</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1002,19 +1002,19 @@
         <v>19111</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11209</v>
+        <v>11589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31567</v>
+        <v>30192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01856727094828857</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0108899766633626</v>
+        <v>0.0112593510053125</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0306684176573718</v>
+        <v>0.0293329084670882</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>500380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494031</v>
+        <v>494084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>503515</v>
+        <v>503532</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9898188141254689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9772598684803765</v>
+        <v>0.9773645157390529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.996019366271013</v>
+        <v>0.9960533012101663</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>468</v>
@@ -1052,19 +1052,19 @@
         <v>509801</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>499667</v>
+        <v>499897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515917</v>
+        <v>516431</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9733386514626268</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9539906306702081</v>
+        <v>0.9544303792645805</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.985016763508726</v>
+        <v>0.9859973556391776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>935</v>
@@ -1073,19 +1073,19 @@
         <v>1010181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>997725</v>
+        <v>999100</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1018083</v>
+        <v>1017703</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9814327290517114</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9693315823426284</v>
+        <v>0.9706670915329119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9891100233366374</v>
+        <v>0.9887406489946873</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>4908</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1930</v>
+        <v>1913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10977</v>
+        <v>10622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01514520036248672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005957174806621637</v>
+        <v>0.00590309846195373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03387357887793982</v>
+        <v>0.03277881234048574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1198,19 +1198,19 @@
         <v>6363</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2153</v>
+        <v>2184</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13861</v>
+        <v>12740</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01865869640051764</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00631282716754837</v>
+        <v>0.00640302875694997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04064593765944671</v>
+        <v>0.03735916680694294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1219,19 +1219,19 @@
         <v>11271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6035</v>
+        <v>6262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19608</v>
+        <v>20158</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01694678461345741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009074247113889919</v>
+        <v>0.00941502831924906</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02948253251828896</v>
+        <v>0.03030951978256798</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>319138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313069</v>
+        <v>313424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322116</v>
+        <v>322133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9848547996375133</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9661264211220603</v>
+        <v>0.9672211876595146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9940428251933784</v>
+        <v>0.9940969015380463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -1269,19 +1269,19 @@
         <v>334657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327159</v>
+        <v>328280</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338867</v>
+        <v>338836</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9813413035994824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9593540623405533</v>
+        <v>0.9626408331930572</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9936871728324516</v>
+        <v>0.99359697124305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -1290,19 +1290,19 @@
         <v>653795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645458</v>
+        <v>644908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659031</v>
+        <v>658804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9830532153865426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9705174674817111</v>
+        <v>0.9696904802174321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9909257528861101</v>
+        <v>0.990584971680751</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>8496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4154</v>
+        <v>4084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16062</v>
+        <v>15821</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02271799238095167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01110847543898408</v>
+        <v>0.01091986316573071</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04294910256116936</v>
+        <v>0.04230400875199936</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1415,19 +1415,19 @@
         <v>13152</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6775</v>
+        <v>6818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21353</v>
+        <v>22340</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03381523806819273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01741838822511057</v>
+        <v>0.01752843532351173</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05489872978589108</v>
+        <v>0.05743705582723128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1436,19 +1436,19 @@
         <v>21649</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13077</v>
+        <v>13707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34176</v>
+        <v>33342</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0283754801744195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01714105340650749</v>
+        <v>0.01796648135258714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04479601261250233</v>
+        <v>0.04370268827477488</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>365486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357920</v>
+        <v>358161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369828</v>
+        <v>369898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9772820076190484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9570508974388307</v>
+        <v>0.9576959912480006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.988891524561016</v>
+        <v>0.9890801368342693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>359</v>
@@ -1486,19 +1486,19 @@
         <v>375799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367598</v>
+        <v>366611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382176</v>
+        <v>382133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9661847619318072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9451012702141088</v>
+        <v>0.9425629441727688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9825816117748895</v>
+        <v>0.9824715646764882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>695</v>
@@ -1507,19 +1507,19 @@
         <v>741284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>728757</v>
+        <v>729591</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>749856</v>
+        <v>749226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9716245198255805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.955203987387498</v>
+        <v>0.9562973117252249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9828589465934926</v>
+        <v>0.9820335186474128</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>9693</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5199</v>
+        <v>4379</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18475</v>
+        <v>17168</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04559057411409943</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02445284286310229</v>
+        <v>0.02059519389894923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08689451948038948</v>
+        <v>0.08074773416737802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1632,19 +1632,19 @@
         <v>11952</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6505</v>
+        <v>6769</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21274</v>
+        <v>20926</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05442882736889708</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0296229719495957</v>
+        <v>0.03082685526054353</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09688223750372699</v>
+        <v>0.09529753119510356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1653,19 +1653,19 @@
         <v>21645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12724</v>
+        <v>13868</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31995</v>
+        <v>33591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05008099586308084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02944053479327731</v>
+        <v>0.03208717108197689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07402619015973122</v>
+        <v>0.07771975540522058</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>202925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194143</v>
+        <v>195450</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207419</v>
+        <v>208239</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9544094258859006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9131054805196103</v>
+        <v>0.9192522658326224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9755471571368977</v>
+        <v>0.9794048061010509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -1703,19 +1703,19 @@
         <v>207639</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198317</v>
+        <v>198665</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213086</v>
+        <v>212822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9455711726311029</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9031177624962721</v>
+        <v>0.9047024688048966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9703770280504035</v>
+        <v>0.9691731447394565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>388</v>
@@ -1724,19 +1724,19 @@
         <v>410564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>400214</v>
+        <v>398618</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419485</v>
+        <v>418341</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9499190041369192</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9259738098402688</v>
+        <v>0.9222802445947785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9705594652067224</v>
+        <v>0.9679128289180228</v>
       </c>
     </row>
     <row r="18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7546</v>
+        <v>6517</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007825300649695549</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02754196536353407</v>
+        <v>0.02378477565570562</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1849,19 +1849,19 @@
         <v>3966</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9258</v>
+        <v>9933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01425968435845701</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003589814632671077</v>
+        <v>0.003558316225972128</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03329032823402302</v>
+        <v>0.0357193970692635</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1870,19 +1870,19 @@
         <v>6110</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2093</v>
+        <v>2135</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13001</v>
+        <v>13330</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01106647092035122</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003790536896327881</v>
+        <v>0.003866970270580935</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02354943048417775</v>
+        <v>0.02414571739909522</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>271837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266435</v>
+        <v>267464</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -1908,7 +1908,7 @@
         <v>0.9921746993503044</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9724580346364659</v>
+        <v>0.9762152243442945</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1920,19 +1920,19 @@
         <v>274130</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>268838</v>
+        <v>268163</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277098</v>
+        <v>277106</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.985740315641543</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9667096717659781</v>
+        <v>0.9642806029307364</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9964101853673289</v>
+        <v>0.9964416837740279</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -1941,19 +1941,19 @@
         <v>545967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539076</v>
+        <v>538747</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549984</v>
+        <v>549942</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9889335290796488</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9764505695158235</v>
+        <v>0.9758542826009047</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9962094631036721</v>
+        <v>0.9961330297294191</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>14304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8187</v>
+        <v>7401</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26076</v>
+        <v>24725</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02158084167923675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01235262298214838</v>
+        <v>0.01116579110946083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03934309978937187</v>
+        <v>0.0373052101665142</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2066,19 +2066,19 @@
         <v>15472</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8897</v>
+        <v>9218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25807</v>
+        <v>25968</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02229916929357275</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0128229306826728</v>
+        <v>0.01328500701447115</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03719393850406925</v>
+        <v>0.03742601772947115</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2087,19 +2087,19 @@
         <v>29776</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19073</v>
+        <v>19532</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42409</v>
+        <v>43033</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02194822976900809</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0140592889294663</v>
+        <v>0.01439716273207915</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03126003116424064</v>
+        <v>0.0317203359838112</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>648484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>636712</v>
+        <v>638063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654601</v>
+        <v>655387</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9784191583207632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9606569002106279</v>
+        <v>0.9626947898334847</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9876473770178515</v>
+        <v>0.9888342088905384</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>622</v>
@@ -2137,19 +2137,19 @@
         <v>678381</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>668046</v>
+        <v>667885</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>684956</v>
+        <v>684635</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9777008307064272</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.962806061495931</v>
+        <v>0.962573982270529</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9871770693173272</v>
+        <v>0.9867149929855289</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1228</v>
@@ -2158,19 +2158,19 @@
         <v>1326865</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1314232</v>
+        <v>1313608</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1337568</v>
+        <v>1337109</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9780517702309919</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9687399688357592</v>
+        <v>0.9682796640161888</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9859407110705336</v>
+        <v>0.985602837267921</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>13311</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6672</v>
+        <v>6565</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26054</v>
+        <v>25714</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01708479039436558</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008563864684145198</v>
+        <v>0.00842625494541528</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03344102183339849</v>
+        <v>0.03300533059624877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2283,19 +2283,19 @@
         <v>18391</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11015</v>
+        <v>11038</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29210</v>
+        <v>28481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02235831420115817</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01339082560991412</v>
+        <v>0.01341843120752611</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03551083615167434</v>
+        <v>0.03462392669076222</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -2304,19 +2304,19 @@
         <v>31702</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22174</v>
+        <v>20579</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47779</v>
+        <v>47100</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01979313023139606</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01384412287194137</v>
+        <v>0.0128487110638481</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02983036401884546</v>
+        <v>0.02940666510466206</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>765787</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>753044</v>
+        <v>753384</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>772426</v>
+        <v>772533</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9829152096056344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9665589781666016</v>
+        <v>0.9669946694037517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9914361353158548</v>
+        <v>0.9915737450545848</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>740</v>
@@ -2354,19 +2354,19 @@
         <v>804187</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>793368</v>
+        <v>794097</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>811563</v>
+        <v>811540</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9776416857988418</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9644891638483255</v>
+        <v>0.965376073309238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9866091743900858</v>
+        <v>0.9865815687924741</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1447</v>
@@ -2375,19 +2375,19 @@
         <v>1569974</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1553897</v>
+        <v>1554576</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1579502</v>
+        <v>1581097</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9802068697686039</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.970169635981155</v>
+        <v>0.9705933348953381</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9861558771280587</v>
+        <v>0.9871512889361519</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>67982</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52096</v>
+        <v>51203</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86698</v>
+        <v>86863</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01983836875696299</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01520251524527415</v>
+        <v>0.01494209637510456</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02530010572625466</v>
+        <v>0.02534816209930857</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -2500,19 +2500,19 @@
         <v>94052</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>76680</v>
+        <v>76436</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>115339</v>
+        <v>113875</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0264555038060549</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02156891674828244</v>
+        <v>0.02150028959023025</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03244326538359218</v>
+        <v>0.0320313471840005</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>146</v>
@@ -2521,19 +2521,19 @@
         <v>162034</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>136700</v>
+        <v>138618</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>188860</v>
+        <v>192626</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02320774428187131</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01957924721141818</v>
+        <v>0.01985393277292434</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02704997425167421</v>
+        <v>0.02758938401501106</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3358797</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3340081</v>
+        <v>3339916</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3374683</v>
+        <v>3375576</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.980161631243037</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9746998942737454</v>
+        <v>0.9746518379006918</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9847974847547258</v>
+        <v>0.9850579036248954</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3211</v>
@@ -2571,19 +2571,19 @@
         <v>3461046</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3439759</v>
+        <v>3441223</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3478418</v>
+        <v>3478662</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9735444961939451</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9675567346164079</v>
+        <v>0.9679686528159995</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9784310832517176</v>
+        <v>0.9784997104097698</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6359</v>
@@ -2592,19 +2592,19 @@
         <v>6819843</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6793017</v>
+        <v>6789251</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6845177</v>
+        <v>6843259</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9767922557181287</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9729500257483259</v>
+        <v>0.9724106159849889</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9804207527885818</v>
+        <v>0.9801460672270756</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>3006</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8539</v>
+        <v>9597</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01023136633529998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003152000076360021</v>
+        <v>0.003163287175940094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02906700044045452</v>
+        <v>0.03267002036529438</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2961,19 +2961,19 @@
         <v>9462</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4433</v>
+        <v>4536</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18352</v>
+        <v>17625</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0327729079393713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01535487159528261</v>
+        <v>0.01571127243407095</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0635675046814982</v>
+        <v>0.06104938894007906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2982,19 +2982,19 @@
         <v>12467</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6258</v>
+        <v>6156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21837</v>
+        <v>22432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02140426401620244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01074368424417921</v>
+        <v>0.01056852295263905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03749151267135101</v>
+        <v>0.03851296826173009</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>290755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285222</v>
+        <v>284164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292835</v>
+        <v>292832</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9897686336647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9709329995595457</v>
+        <v>0.9673299796347057</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99684799992364</v>
+        <v>0.9968367128240599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -3032,19 +3032,19 @@
         <v>279241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270351</v>
+        <v>271078</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284270</v>
+        <v>284167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9672270920606287</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9364324953185018</v>
+        <v>0.9389506110599209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9846451284047174</v>
+        <v>0.984288727565929</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -3053,19 +3053,19 @@
         <v>569997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560627</v>
+        <v>560032</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576206</v>
+        <v>576308</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9785957359837976</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.962508487328649</v>
+        <v>0.96148703173827</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.989256315755821</v>
+        <v>0.989431477047361</v>
       </c>
     </row>
     <row r="6">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6509</v>
+        <v>5829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002146862490294372</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01295142214222763</v>
+        <v>0.0115990369159339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3178,19 +3178,19 @@
         <v>5813</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2146</v>
+        <v>2085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12932</v>
+        <v>13090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01111262795741704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004101840275284787</v>
+        <v>0.003986771978719098</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02472178827222003</v>
+        <v>0.02502447452563816</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -3199,19 +3199,19 @@
         <v>6892</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2423</v>
+        <v>2502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14319</v>
+        <v>14480</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00671938299706579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002362722233583087</v>
+        <v>0.002439750728298915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01396066931387523</v>
+        <v>0.0141177645455188</v>
       </c>
     </row>
     <row r="8">
@@ -3228,7 +3228,7 @@
         <v>501496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>496066</v>
+        <v>496746</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -3237,7 +3237,7 @@
         <v>0.9978531375097056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9870485778577723</v>
+        <v>0.9884009630840664</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3249,19 +3249,19 @@
         <v>517271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510152</v>
+        <v>509994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520938</v>
+        <v>520999</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9888873720425829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9752782117277801</v>
+        <v>0.9749755254743617</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958981597247152</v>
+        <v>0.9960132280212809</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>953</v>
@@ -3270,19 +3270,19 @@
         <v>1018767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1011340</v>
+        <v>1011179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023236</v>
+        <v>1023157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9932806170029342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9860393306861245</v>
+        <v>0.9858822354544807</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9976372777664169</v>
+        <v>0.9975602492717009</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>5173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1848</v>
+        <v>1886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10806</v>
+        <v>10338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01623690959098317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005801311968676284</v>
+        <v>0.005920169080487079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03392120539191091</v>
+        <v>0.03245218724831755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3395,19 +3395,19 @@
         <v>5261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1844</v>
+        <v>1933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11757</v>
+        <v>11755</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01564274650511078</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005483108248245769</v>
+        <v>0.005748896536077865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03495803458616911</v>
+        <v>0.03495160401694834</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3416,19 +3416,19 @@
         <v>10433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5427</v>
+        <v>5140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17796</v>
+        <v>17907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01593177853591733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008287390686797553</v>
+        <v>0.007849598782460623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02717496875368682</v>
+        <v>0.02734425773801672</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>313392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307759</v>
+        <v>308227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316717</v>
+        <v>316679</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9837630904090169</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9660787946080892</v>
+        <v>0.9675478127516824</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941986880313238</v>
+        <v>0.9940798309195129</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>327</v>
@@ -3466,19 +3466,19 @@
         <v>331048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>324552</v>
+        <v>324554</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334465</v>
+        <v>334376</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9843572534948892</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9650419654138307</v>
+        <v>0.9650483959830517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9945168917517542</v>
+        <v>0.9942511034639221</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>656</v>
@@ -3487,19 +3487,19 @@
         <v>644441</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>637078</v>
+        <v>636967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649447</v>
+        <v>649734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9840682214640827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9728250312463133</v>
+        <v>0.9726557422619835</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9917126093132025</v>
+        <v>0.9921504012175394</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>2805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8074</v>
+        <v>8850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007580984985689758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002247176777185978</v>
+        <v>0.002233367048011341</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02182505642346135</v>
+        <v>0.02392010844497231</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -3612,19 +3612,19 @@
         <v>6554</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2315</v>
+        <v>2766</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14007</v>
+        <v>14088</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01692226680338522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00597665258683174</v>
+        <v>0.007142648622706691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03616784032033411</v>
+        <v>0.03637635612399188</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3633,19 +3633,19 @@
         <v>9358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4562</v>
+        <v>4901</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17646</v>
+        <v>18208</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01235844816317812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006024326772412816</v>
+        <v>0.006471716140896191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0233023455916022</v>
+        <v>0.02404441273863708</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>367159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361890</v>
+        <v>361114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369133</v>
+        <v>369138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9924190150143103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9781749435765379</v>
+        <v>0.9760798915550277</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997752823222814</v>
+        <v>0.9977666329519886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>352</v>
@@ -3683,19 +3683,19 @@
         <v>380729</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>373276</v>
+        <v>373195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384968</v>
+        <v>384517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9830777331966147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9638321596796661</v>
+        <v>0.9636236438760082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9940233474131682</v>
+        <v>0.9928573513772935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -3704,19 +3704,19 @@
         <v>747889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739601</v>
+        <v>739039</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752685</v>
+        <v>752346</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9876415518368219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.976697654408398</v>
+        <v>0.975955587261363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9939756732275873</v>
+        <v>0.9935282838591039</v>
       </c>
     </row>
     <row r="15">
@@ -3821,19 +3821,19 @@
         <v>6729</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2279</v>
+        <v>2268</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12975</v>
+        <v>13544</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03078357420089908</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01042810296780649</v>
+        <v>0.01037431564529342</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05936062554790363</v>
+        <v>0.06196267585521456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3842,19 +3842,19 @@
         <v>6729</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2361</v>
+        <v>2288</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13852</v>
+        <v>13914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01565556983842039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005494156288272906</v>
+        <v>0.005322401014238913</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0322275237998186</v>
+        <v>0.03237282194943149</v>
       </c>
     </row>
     <row r="17">
@@ -3884,19 +3884,19 @@
         <v>211858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205612</v>
+        <v>205043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216308</v>
+        <v>216319</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9692164257991009</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9406393744520952</v>
+        <v>0.9380373241447858</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9895718970321933</v>
+        <v>0.9896256843547065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>429</v>
@@ -3905,19 +3905,19 @@
         <v>423079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>415956</v>
+        <v>415894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427447</v>
+        <v>427520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9843444301615796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.967772476200182</v>
+        <v>0.9676271780505697</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9945058437117271</v>
+        <v>0.9946775989857611</v>
       </c>
     </row>
     <row r="18">
@@ -4009,19 +4009,19 @@
         <v>4217</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1558</v>
+        <v>1601</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9049</v>
+        <v>9872</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01602857307588948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005919602277441044</v>
+        <v>0.006086218486533873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03439195487893842</v>
+        <v>0.0375181215242242</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -4030,19 +4030,19 @@
         <v>8297</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3432</v>
+        <v>3523</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16338</v>
+        <v>16705</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03037901296582622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01256581885600384</v>
+        <v>0.01289765782572287</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05982104023569954</v>
+        <v>0.06116611452367978</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -4051,19 +4051,19 @@
         <v>12514</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6783</v>
+        <v>6647</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21500</v>
+        <v>21079</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02333749262204745</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01264967763881181</v>
+        <v>0.01239522062707477</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04009469999734433</v>
+        <v>0.03930933185592991</v>
       </c>
     </row>
     <row r="20">
@@ -4080,19 +4080,19 @@
         <v>258906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254074</v>
+        <v>253251</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261565</v>
+        <v>261522</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9839714269241105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9656080451210617</v>
+        <v>0.9624818784757754</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.994080397722559</v>
+        <v>0.9939137815134661</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>256</v>
@@ -4101,19 +4101,19 @@
         <v>264818</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256777</v>
+        <v>256410</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269683</v>
+        <v>269592</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9696209870341738</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9401789597643003</v>
+        <v>0.9388338854763202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9874341811439962</v>
+        <v>0.9871023421742771</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>510</v>
@@ -4122,19 +4122,19 @@
         <v>523724</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514738</v>
+        <v>515159</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>529455</v>
+        <v>529591</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9766625073779526</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9599053000026559</v>
+        <v>0.9606906681440702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9873503223611884</v>
+        <v>0.9876047793729252</v>
       </c>
     </row>
     <row r="21">
@@ -4226,19 +4226,19 @@
         <v>11280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5669</v>
+        <v>5699</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18926</v>
+        <v>19191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01718005491922107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008633713233323006</v>
+        <v>0.008679932606752989</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02882568818521865</v>
+        <v>0.02922979831258</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4247,19 +4247,19 @@
         <v>19510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11690</v>
+        <v>11615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31072</v>
+        <v>29902</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02822275151660369</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0169104392676255</v>
+        <v>0.01680145390990327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04494750827722481</v>
+        <v>0.04325470801749868</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -4268,19 +4268,19 @@
         <v>30790</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20272</v>
+        <v>20469</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42482</v>
+        <v>43473</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02284369597232334</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01504053004680037</v>
+        <v>0.0151867510371642</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03151859257875307</v>
+        <v>0.0322535791535569</v>
       </c>
     </row>
     <row r="23">
@@ -4297,19 +4297,19 @@
         <v>645278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637632</v>
+        <v>637367</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>650889</v>
+        <v>650859</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.982819945080779</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9711743118147813</v>
+        <v>0.97077020168742</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9913662867666772</v>
+        <v>0.9913200673932471</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>629</v>
@@ -4318,19 +4318,19 @@
         <v>671784</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>660222</v>
+        <v>661392</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>679604</v>
+        <v>679679</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9717772484833963</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9550524917227758</v>
+        <v>0.9567452919825008</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9830895607323745</v>
+        <v>0.9831985460900967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1197</v>
@@ -4339,19 +4339,19 @@
         <v>1317062</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1305370</v>
+        <v>1304379</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1327580</v>
+        <v>1327383</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9771563040276766</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9684814074212468</v>
+        <v>0.9677464208464431</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9849594699531996</v>
+        <v>0.9848132489628358</v>
       </c>
     </row>
     <row r="24">
@@ -4443,19 +4443,19 @@
         <v>7829</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3606</v>
+        <v>3533</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16309</v>
+        <v>15677</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01005576885894387</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004631959336055604</v>
+        <v>0.004537934949994713</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02094672896155579</v>
+        <v>0.02013483102540545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -4464,19 +4464,19 @@
         <v>18840</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11207</v>
+        <v>11422</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30106</v>
+        <v>28837</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02280429521019445</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0135654218525487</v>
+        <v>0.01382570172706126</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03644058662350096</v>
+        <v>0.0349044932916077</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -4485,19 +4485,19 @@
         <v>26669</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17559</v>
+        <v>17465</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38276</v>
+        <v>38834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01661904152036052</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01094208537733117</v>
+        <v>0.01088319340448366</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02385151548771671</v>
+        <v>0.02419916496513159</v>
       </c>
     </row>
     <row r="26">
@@ -4514,19 +4514,19 @@
         <v>770754</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762274</v>
+        <v>762906</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774977</v>
+        <v>775050</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9899442311410561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9790532710384442</v>
+        <v>0.9798651689745945</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9953680406639444</v>
+        <v>0.9954620650500052</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>739</v>
@@ -4535,19 +4535,19 @@
         <v>807327</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>796061</v>
+        <v>797330</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>814960</v>
+        <v>814745</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9771957047898056</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9635594133764991</v>
+        <v>0.9650955067083924</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9864345781474513</v>
+        <v>0.9861742982729388</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1481</v>
@@ -4556,19 +4556,19 @@
         <v>1578081</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1566474</v>
+        <v>1565916</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1587191</v>
+        <v>1587285</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9833809584796395</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9761484845122833</v>
+        <v>0.9758008350348685</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9890579146226688</v>
+        <v>0.9891168065955164</v>
       </c>
     </row>
     <row r="27">
@@ -4660,19 +4660,19 @@
         <v>35388</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24657</v>
+        <v>25221</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47439</v>
+        <v>47996</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01042561161703412</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007264238715259309</v>
+        <v>0.007430388268330931</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01397583083922973</v>
+        <v>0.01413992815500514</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>70</v>
@@ -4681,19 +4681,19 @@
         <v>80465</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>63686</v>
+        <v>62561</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101198</v>
+        <v>100594</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02270115731027841</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01796742505529133</v>
+        <v>0.01764986302069354</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02855033919060121</v>
+        <v>0.02837992088294745</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>108</v>
@@ -4702,19 +4702,19 @@
         <v>115853</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>95195</v>
+        <v>95881</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>137536</v>
+        <v>140112</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0166962359652568</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01371901388429192</v>
+        <v>0.01381790514721977</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01982103987460975</v>
+        <v>0.02019220553175402</v>
       </c>
     </row>
     <row r="29">
@@ -4731,19 +4731,19 @@
         <v>3358962</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3346911</v>
+        <v>3346354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3369693</v>
+        <v>3369129</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9895743883829659</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9860241691607702</v>
+        <v>0.9858600718449951</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9927357612847403</v>
+        <v>0.9925696117316694</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3268</v>
@@ -4752,19 +4752,19 @@
         <v>3464077</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3443344</v>
+        <v>3443948</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3480856</v>
+        <v>3481981</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9772988426897216</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9714496608093989</v>
+        <v>0.9716200791170525</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9820325749447086</v>
+        <v>0.9823501369793065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6461</v>
@@ -4773,19 +4773,19 @@
         <v>6823039</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6801356</v>
+        <v>6798780</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6843697</v>
+        <v>6843011</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9833037640347432</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9801789601253903</v>
+        <v>0.9798077944682461</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9862809861157081</v>
+        <v>0.9861820948527803</v>
       </c>
     </row>
     <row r="30">
@@ -5124,16 +5124,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4590</v>
+        <v>4491</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004400451663893501</v>
+        <v>0.004400451663893502</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01439521312613828</v>
+        <v>0.01408452840179859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5142,19 +5142,19 @@
         <v>3446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6597</v>
+        <v>6952</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01090279792203227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004685694888400877</v>
+        <v>0.004680748937695114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02087300190346995</v>
+        <v>0.02199517052258407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -5163,19 +5163,19 @@
         <v>4849</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2435</v>
+        <v>2400</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9631</v>
+        <v>9553</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007637365451091492</v>
+        <v>0.00763736545109149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003834879619499147</v>
+        <v>0.003780310337992638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01516993980324106</v>
+        <v>0.01504608951856884</v>
       </c>
     </row>
     <row r="5">
@@ -5192,16 +5192,16 @@
         <v>317442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314255</v>
+        <v>314354</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9955995483361064</v>
+        <v>0.9955995483361066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9856047868738633</v>
+        <v>0.9859154715982025</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5213,19 +5213,19 @@
         <v>312615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309464</v>
+        <v>309109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314580</v>
+        <v>314582</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9890972020779677</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9791269980965297</v>
+        <v>0.9780048294774158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9953143051115991</v>
+        <v>0.995319251062305</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>860</v>
@@ -5234,19 +5234,19 @@
         <v>630057</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>625275</v>
+        <v>625353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>632471</v>
+        <v>632506</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9923626345489085</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9848300601967586</v>
+        <v>0.9849539104814325</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9961651203805009</v>
+        <v>0.9962196896620074</v>
       </c>
     </row>
     <row r="6">
@@ -5338,19 +5338,19 @@
         <v>11635</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5974</v>
+        <v>5989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19492</v>
+        <v>19961</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02206179530678646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01132803282105615</v>
+        <v>0.01135710198918788</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03696177512748533</v>
+        <v>0.03785012777852477</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -5359,19 +5359,19 @@
         <v>22163</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15845</v>
+        <v>15536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30993</v>
+        <v>31012</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04060631557213156</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02902944559591772</v>
+        <v>0.0284649552010734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05678438505572633</v>
+        <v>0.0568176929697467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -5380,19 +5380,19 @@
         <v>33798</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24344</v>
+        <v>24363</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44505</v>
+        <v>43255</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03149343742337675</v>
+        <v>0.03149343742337674</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02268400745460697</v>
+        <v>0.02270177152892515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04147029692331212</v>
+        <v>0.04030557642993959</v>
       </c>
     </row>
     <row r="8">
@@ -5409,19 +5409,19 @@
         <v>515728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>507871</v>
+        <v>507402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521389</v>
+        <v>521374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9779382046932136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9630382248725143</v>
+        <v>0.9621498722214753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9886719671789436</v>
+        <v>0.9886428980108121</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>683</v>
@@ -5430,19 +5430,19 @@
         <v>523646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514816</v>
+        <v>514797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>529964</v>
+        <v>530273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9593936844278684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.943215614944274</v>
+        <v>0.9431823070302535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9709705544040822</v>
+        <v>0.9715350447989269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1050</v>
@@ -5451,19 +5451,19 @@
         <v>1039374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1028667</v>
+        <v>1029917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1048828</v>
+        <v>1048809</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9685065625766233</v>
+        <v>0.9685065625766232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9585297030766878</v>
+        <v>0.9596944235700604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.977315992545393</v>
+        <v>0.9772982284710745</v>
       </c>
     </row>
     <row r="9">
@@ -5555,19 +5555,19 @@
         <v>18732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12975</v>
+        <v>13560</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26081</v>
+        <v>26620</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05928017881975432</v>
+        <v>0.05928017881975433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04106052874102058</v>
+        <v>0.0429136606760349</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08253730087890111</v>
+        <v>0.08424254885793493</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -5576,19 +5576,19 @@
         <v>20642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15148</v>
+        <v>14658</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28436</v>
+        <v>28002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05792205380223416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04250444518946014</v>
+        <v>0.04112970263010152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07979095594987692</v>
+        <v>0.07857181580881692</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -5597,19 +5597,19 @@
         <v>39374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30798</v>
+        <v>31052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49095</v>
+        <v>49091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05856032668284328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04580541367909911</v>
+        <v>0.04618204820881031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07301765813553258</v>
+        <v>0.07301178089814303</v>
       </c>
     </row>
     <row r="11">
@@ -5626,19 +5626,19 @@
         <v>297261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289912</v>
+        <v>289373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303018</v>
+        <v>302433</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9407198211802457</v>
+        <v>0.9407198211802458</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9174626991210989</v>
+        <v>0.915757451142065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9589394712589795</v>
+        <v>0.957086339323965</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>494</v>
@@ -5647,19 +5647,19 @@
         <v>335739</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327945</v>
+        <v>328379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>341233</v>
+        <v>341723</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9420779461977659</v>
+        <v>0.9420779461977657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9202090440501233</v>
+        <v>0.9214281841911831</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9574955548105398</v>
+        <v>0.9588702973698985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -5668,19 +5668,19 @@
         <v>633001</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623280</v>
+        <v>623284</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641577</v>
+        <v>641323</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9414396733171568</v>
+        <v>0.9414396733171567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9269823418644674</v>
+        <v>0.9269882191018569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.954194586320901</v>
+        <v>0.9538179517911899</v>
       </c>
     </row>
     <row r="12">
@@ -5772,19 +5772,19 @@
         <v>6961</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3735</v>
+        <v>3534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13378</v>
+        <v>12350</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0186548119271096</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01000922848599257</v>
+        <v>0.009470743972753567</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03585174802569275</v>
+        <v>0.03309666239540225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -5793,19 +5793,19 @@
         <v>9253</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5846</v>
+        <v>5766</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13832</v>
+        <v>14218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02196329381453347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01387736082196607</v>
+        <v>0.01368808824881085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03283496965213298</v>
+        <v>0.03374998947591558</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -5814,19 +5814,19 @@
         <v>16213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11025</v>
+        <v>11171</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22435</v>
+        <v>22977</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02040926918481788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0138783164352431</v>
+        <v>0.01406238441627366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02824069177491223</v>
+        <v>0.02892258317040026</v>
       </c>
     </row>
     <row r="14">
@@ -5843,19 +5843,19 @@
         <v>366184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359767</v>
+        <v>360795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369410</v>
+        <v>369611</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9813451880728904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9641482519743068</v>
+        <v>0.9669033376045981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9899907715140074</v>
+        <v>0.9905292560272464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>576</v>
@@ -5864,19 +5864,19 @@
         <v>412019</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407440</v>
+        <v>407054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415426</v>
+        <v>415506</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9780367061854666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.967165030347867</v>
+        <v>0.9662500105240855</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9861226391780339</v>
+        <v>0.9863119117511893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -5885,19 +5885,19 @@
         <v>778204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>771982</v>
+        <v>771440</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>783392</v>
+        <v>783246</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9795907308151823</v>
+        <v>0.979590730815182</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9717593082250878</v>
+        <v>0.9710774168296001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9861216835647569</v>
+        <v>0.9859376155837264</v>
       </c>
     </row>
     <row r="15">
@@ -5989,19 +5989,19 @@
         <v>8691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5027</v>
+        <v>5549</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13583</v>
+        <v>14775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04225994861454994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02444082015185751</v>
+        <v>0.02698224053237031</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06604189517406903</v>
+        <v>0.07183787605801698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -6010,19 +6010,19 @@
         <v>8037</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5006</v>
+        <v>5197</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11858</v>
+        <v>12222</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03543128186732526</v>
+        <v>0.03543128186732525</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02206975558368955</v>
+        <v>0.02291033595220984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05228063903082026</v>
+        <v>0.05388182503999291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -6031,19 +6031,19 @@
         <v>16728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12097</v>
+        <v>11764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22647</v>
+        <v>23015</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03867857588175893</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02797088757493208</v>
+        <v>0.02720103065031344</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05236334668519484</v>
+        <v>0.05321428832624557</v>
       </c>
     </row>
     <row r="17">
@@ -6060,19 +6060,19 @@
         <v>196974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192082</v>
+        <v>190890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200638</v>
+        <v>200116</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9577400513854498</v>
+        <v>0.9577400513854502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9339581048259317</v>
+        <v>0.9281621239419845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9755591798481427</v>
+        <v>0.9730177594676302</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>470</v>
@@ -6081,19 +6081,19 @@
         <v>218786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214965</v>
+        <v>214601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221817</v>
+        <v>221626</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9645687181326746</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9477193609691796</v>
+        <v>0.9461181749600071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9779302444163106</v>
+        <v>0.9770896640477902</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>733</v>
@@ -6102,19 +6102,19 @@
         <v>415760</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>409841</v>
+        <v>409473</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>420391</v>
+        <v>420724</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.961321424118241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9476366533148052</v>
+        <v>0.9467857116737546</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9720291124250681</v>
+        <v>0.9727989693496865</v>
       </c>
     </row>
     <row r="18">
@@ -6206,19 +6206,19 @@
         <v>28917</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21589</v>
+        <v>22220</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36470</v>
+        <v>36780</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.10681975699032</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07975034164503406</v>
+        <v>0.08208237688844043</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1347221277492474</v>
+        <v>0.135865927821519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -6227,19 +6227,19 @@
         <v>31491</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25137</v>
+        <v>25079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38468</v>
+        <v>39229</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1199023053942891</v>
+        <v>0.119902305394289</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09570663629894931</v>
+        <v>0.09548923354982179</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1464644712677447</v>
+        <v>0.1493611905682336</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>147</v>
@@ -6248,19 +6248,19 @@
         <v>60408</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51015</v>
+        <v>51383</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71958</v>
+        <v>71183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1132621123248281</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09565108411297189</v>
+        <v>0.09634098915399743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1349178863846391</v>
+        <v>0.1334651092014893</v>
       </c>
     </row>
     <row r="20">
@@ -6277,19 +6277,19 @@
         <v>241790</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234237</v>
+        <v>233927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249118</v>
+        <v>248487</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.89318024300968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8652778722507525</v>
+        <v>0.8641340721784806</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9202496583549656</v>
+        <v>0.9179176231115594</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>373</v>
@@ -6298,19 +6298,19 @@
         <v>231151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224174</v>
+        <v>223413</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237505</v>
+        <v>237563</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8800976946057111</v>
+        <v>0.8800976946057109</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8535355287322551</v>
+        <v>0.8506388094317663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9042933637010507</v>
+        <v>0.904510766450178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>682</v>
@@ -6319,19 +6319,19 @@
         <v>472941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>461391</v>
+        <v>462166</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>482334</v>
+        <v>481966</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.886737887675172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8650821136153609</v>
+        <v>0.8665348907985106</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9043489158870281</v>
+        <v>0.9036590108460026</v>
       </c>
     </row>
     <row r="21">
@@ -6423,19 +6423,19 @@
         <v>22657</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14410</v>
+        <v>14814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34759</v>
+        <v>34675</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03155774661067882</v>
+        <v>0.03155774661067883</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02007070401592894</v>
+        <v>0.02063403005694375</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04841435866925917</v>
+        <v>0.04829647229930483</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -6444,19 +6444,19 @@
         <v>49548</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38719</v>
+        <v>39022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62667</v>
+        <v>63474</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06423698467016595</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05019764946019063</v>
+        <v>0.05059078122230905</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08124466892353524</v>
+        <v>0.08229082275222158</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>93</v>
@@ -6465,19 +6465,19 @@
         <v>72205</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58638</v>
+        <v>58517</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87750</v>
+        <v>89821</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04848304314237061</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03937344173830983</v>
+        <v>0.03929185808334434</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05892118805706505</v>
+        <v>0.06031141023727958</v>
       </c>
     </row>
     <row r="23">
@@ -6494,19 +6494,19 @@
         <v>695294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>683192</v>
+        <v>683276</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>703541</v>
+        <v>703137</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9684422533893212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.951585641330741</v>
+        <v>0.9517035277006953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9799292959840711</v>
+        <v>0.9793659699430562</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>889</v>
@@ -6515,19 +6515,19 @@
         <v>721785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>708666</v>
+        <v>707859</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>732614</v>
+        <v>732311</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.935763015329834</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9187553310764648</v>
+        <v>0.9177091772477785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9498023505398095</v>
+        <v>0.949409218777691</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1463</v>
@@ -6536,19 +6536,19 @@
         <v>1417079</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1401534</v>
+        <v>1399463</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1430646</v>
+        <v>1430767</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9515169568576295</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9410788119429352</v>
+        <v>0.9396885897627205</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9606265582616903</v>
+        <v>0.9607081419166557</v>
       </c>
     </row>
     <row r="24">
@@ -6640,19 +6640,19 @@
         <v>10623</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6024</v>
+        <v>6020</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16791</v>
+        <v>18046</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01331090111904595</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007548736330213007</v>
+        <v>0.007543178875681551</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02103989811192164</v>
+        <v>0.02261250330993136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -6661,19 +6661,19 @@
         <v>20847</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14957</v>
+        <v>15032</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29546</v>
+        <v>28703</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02509854363612553</v>
+        <v>0.02509854363612554</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01800714442487031</v>
+        <v>0.01809794701273548</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03557150121940494</v>
+        <v>0.03455631572174751</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -6682,19 +6682,19 @@
         <v>31470</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23093</v>
+        <v>23388</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41656</v>
+        <v>41790</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01932246568357598</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01417908256383412</v>
+        <v>0.0143601515650203</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02557630319801298</v>
+        <v>0.02565874903146013</v>
       </c>
     </row>
     <row r="26">
@@ -6711,19 +6711,19 @@
         <v>787449</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>781281</v>
+        <v>780026</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>792048</v>
+        <v>792052</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9866890988809539</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9789601018880785</v>
+        <v>0.9773874966900686</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9924512636697871</v>
+        <v>0.9924568211243184</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1029</v>
@@ -6732,19 +6732,19 @@
         <v>809762</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>801063</v>
+        <v>801906</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815652</v>
+        <v>815577</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9749014563638744</v>
+        <v>0.9749014563638745</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9644284987805949</v>
+        <v>0.9654436842782524</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9819928555751297</v>
+        <v>0.9819020529872645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1776</v>
@@ -6753,19 +6753,19 @@
         <v>1597211</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1587025</v>
+        <v>1586891</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1605588</v>
+        <v>1605293</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.980677534316424</v>
+        <v>0.9806775343164239</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.974423696801987</v>
+        <v>0.9743412509685397</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.985820917436166</v>
+        <v>0.9856398484349796</v>
       </c>
     </row>
     <row r="27">
@@ -6857,19 +6857,19 @@
         <v>109619</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>94149</v>
+        <v>92328</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>130823</v>
+        <v>127290</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03107340808444805</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02668816057597135</v>
+        <v>0.02617201660941181</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03708406509894682</v>
+        <v>0.03608254743302292</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>312</v>
@@ -6878,19 +6878,19 @@
         <v>165427</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>147801</v>
+        <v>149909</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>186536</v>
+        <v>189505</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04433941528058168</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03961516006731217</v>
+        <v>0.04017999867252654</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0499970974055269</v>
+        <v>0.05079300706367931</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>483</v>
@@ -6899,19 +6899,19 @@
         <v>275046</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>251155</v>
+        <v>252223</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>302804</v>
+        <v>304706</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03789208662551559</v>
+        <v>0.03789208662551558</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03460069784431748</v>
+        <v>0.03474782421906175</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04171612553916271</v>
+        <v>0.04197822691233973</v>
       </c>
     </row>
     <row r="29">
@@ -6928,19 +6928,19 @@
         <v>3418123</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3396919</v>
+        <v>3400452</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3433593</v>
+        <v>3435414</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.968926591915552</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9629159349010532</v>
+        <v>0.963917452566977</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9733118394240289</v>
+        <v>0.9738279833905882</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5045</v>
@@ -6949,19 +6949,19 @@
         <v>3565504</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3544395</v>
+        <v>3541426</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3583130</v>
+        <v>3581022</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9556605847194184</v>
+        <v>0.9556605847194181</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9500029025944733</v>
+        <v>0.9492069929363209</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.960384839932688</v>
+        <v>0.9598200013274735</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8245</v>
@@ -6970,19 +6970,19 @@
         <v>6983626</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6955868</v>
+        <v>6953966</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7007517</v>
+        <v>7006449</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9621079133744845</v>
+        <v>0.9621079133744844</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9582838744608373</v>
+        <v>0.9580217730876607</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9653993021556825</v>
+        <v>0.9652521757809385</v>
       </c>
     </row>
     <row r="30">
